--- a/results/mp/logistic/home-spam/confidence/84/stop-words-topk-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/home-spam/confidence/84/stop-words-topk-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,96 +43,99 @@
     <t>return</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>stopped</t>
   </si>
   <si>
+    <t>disappointing</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
     <t>useless</t>
   </si>
   <si>
+    <t>poorly</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>filters</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>poorly</t>
-  </si>
-  <si>
-    <t>junk</t>
+    <t>cracked</t>
   </si>
   <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>cracked</t>
-  </si>
-  <si>
-    <t>seal</t>
-  </si>
-  <si>
     <t>thin</t>
   </si>
   <si>
     <t>maybe</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>months</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>ok</t>
+    <t>however</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>iron</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>filter</t>
   </si>
   <si>
     <t>grind</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
     <t>lid</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>filter</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
+    <t>received</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>machine</t>
+  </si>
+  <si>
     <t>back</t>
   </si>
   <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>received</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
@@ -145,10 +148,10 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>loves</t>
-  </si>
-  <si>
-    <t>awesome</t>
   </si>
   <si>
     <t>perfect</t>
@@ -533,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -541,10 +544,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -602,38 +605,38 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9380530973451328</v>
+        <v>0.9469026548672567</v>
       </c>
       <c r="C3">
+        <v>107</v>
+      </c>
+      <c r="D3">
+        <v>107</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3">
+        <v>0.828125</v>
+      </c>
+      <c r="L3">
         <v>106</v>
       </c>
-      <c r="D3">
+      <c r="M3">
         <v>106</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3">
-        <v>0.8203125</v>
-      </c>
-      <c r="L3">
-        <v>105</v>
-      </c>
-      <c r="M3">
-        <v>105</v>
-      </c>
       <c r="N3">
         <v>1</v>
       </c>
@@ -644,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -652,13 +655,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.92</v>
+        <v>0.898989898989899</v>
       </c>
       <c r="C4">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="D4">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -670,19 +673,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K4">
-        <v>0.7526881720430108</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="L4">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="M4">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -694,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -702,13 +705,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9090909090909091</v>
+        <v>0.88</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="D5">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -720,19 +723,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K5">
-        <v>0.7391304347826086</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="L5">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="M5">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -744,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -752,13 +755,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8490566037735849</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="C6">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -770,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K6">
-        <v>0.7084745762711865</v>
+        <v>0.7016949152542373</v>
       </c>
       <c r="L6">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M6">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -794,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -802,13 +805,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.847457627118644</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -820,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7">
-        <v>0.6052631578947368</v>
+        <v>0.5897832817337462</v>
       </c>
       <c r="L7">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="M7">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -844,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -852,13 +855,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="C8">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="D8">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -870,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K8">
         <v>0.5021645021645021</v>
@@ -902,13 +905,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7727272727272727</v>
+        <v>0.8</v>
       </c>
       <c r="C9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -920,10 +923,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9">
         <v>0.4805194805194805</v>
@@ -952,13 +955,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7675675675675676</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C10">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -970,19 +973,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K10">
-        <v>0.4210526315789473</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="L10">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="M10">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -994,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1002,13 +1005,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7586206896551724</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1020,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K11">
-        <v>0.2057142857142857</v>
+        <v>0.2114285714285714</v>
       </c>
       <c r="L11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1044,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1052,13 +1055,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7115384615384616</v>
+        <v>0.7513513513513513</v>
       </c>
       <c r="C12">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="D12">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1070,19 +1073,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K12">
-        <v>0.1622489959839357</v>
+        <v>0.158908507223114</v>
       </c>
       <c r="L12">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M12">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1091,10 +1094,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1043</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1102,13 +1105,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7058823529411765</v>
+        <v>0.75</v>
       </c>
       <c r="C13">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D13">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1120,19 +1123,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K13">
-        <v>0.0547945205479452</v>
+        <v>0.05753424657534247</v>
       </c>
       <c r="L13">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M13">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1144,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1178,13 +1181,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7058823529411765</v>
+        <v>0.6911764705882353</v>
       </c>
       <c r="C15">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D15">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1196,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1204,13 +1207,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6438356164383562</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="C16">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1222,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1230,13 +1233,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6037735849056604</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="C17">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D17">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1248,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1256,13 +1259,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5943396226415094</v>
+        <v>0.5407407407407407</v>
       </c>
       <c r="C18">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D18">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1274,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1282,13 +1285,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5736434108527132</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="C19">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D19">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1300,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1308,13 +1311,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.562962962962963</v>
+        <v>0.5283018867924528</v>
       </c>
       <c r="C20">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D20">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1326,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1334,25 +1337,25 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5211267605633803</v>
+        <v>0.5256410256410257</v>
       </c>
       <c r="C21">
+        <v>41</v>
+      </c>
+      <c r="D21">
+        <v>41</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>37</v>
-      </c>
-      <c r="D21">
-        <v>37</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1360,13 +1363,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5</v>
+        <v>0.517948717948718</v>
       </c>
       <c r="C22">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="D22">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1378,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>39</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1386,13 +1389,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4717948717948718</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="C23">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="D23">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1404,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>103</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1412,13 +1415,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4256756756756757</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C24">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D24">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1430,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>85</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1438,13 +1441,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.415929203539823</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C25">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D25">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1456,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1464,13 +1467,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4111111111111111</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="C26">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D26">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1482,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1490,13 +1493,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3793103448275862</v>
+        <v>0.4084507042253521</v>
       </c>
       <c r="C27">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D27">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1508,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1516,13 +1519,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3398058252427185</v>
+        <v>0.3805309734513274</v>
       </c>
       <c r="C28">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D28">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1534,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1542,13 +1545,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2756410256410257</v>
+        <v>0.2718446601941747</v>
       </c>
       <c r="C29">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D29">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1560,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>113</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1568,13 +1571,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.223463687150838</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="C30">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D30">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1586,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>139</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1594,13 +1597,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2115384615384615</v>
+        <v>0.2681564245810056</v>
       </c>
       <c r="C31">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D31">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1612,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>82</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1620,13 +1623,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1347708894878706</v>
+        <v>0.2474226804123711</v>
       </c>
       <c r="C32">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D32">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1638,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>321</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1646,13 +1649,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1047619047619048</v>
+        <v>0.217948717948718</v>
       </c>
       <c r="C33">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D33">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1664,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>188</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1672,13 +1675,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05084745762711865</v>
+        <v>0.123989218328841</v>
       </c>
       <c r="C34">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D34">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1690,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>728</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1698,25 +1701,51 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.04625850340136054</v>
+        <v>0.05221932114882506</v>
       </c>
       <c r="C35">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D35">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>701</v>
+        <v>726</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="C36">
+        <v>35</v>
+      </c>
+      <c r="D36">
+        <v>35</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>700</v>
       </c>
     </row>
   </sheetData>
